--- a/server/src/uploads/excels/063219/exam.4.mini-test3.xlsx
+++ b/server/src/uploads/excels/063219/exam.4.mini-test3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\063219\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513D7A5-8E6F-4C07-9D14-B9712C5EEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="561">
   <si>
     <t>number</t>
   </si>
@@ -1717,12 +1723,124 @@
   <si>
     <t>He refused to invest in new technology.</t>
   </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>transcript</t>
+  </si>
+  <si>
+    <t>ActionDescription</t>
+  </si>
+  <si>
+    <t>PersonPosition</t>
+  </si>
+  <si>
+    <t>EnvironmentSetting</t>
+  </si>
+  <si>
+    <t>YesNoQuestion</t>
+  </si>
+  <si>
+    <t>WhQuestion</t>
+  </si>
+  <si>
+    <t>ChoiceQuestion</t>
+  </si>
+  <si>
+    <t>ConversationPurpose</t>
+  </si>
+  <si>
+    <t>Speaker 1:
+How do you like our new brochure? Doesn't it look very nice?
+Speaker 2:
+Yes, it's much better than the old one we used to have. I especially like the pictures. Did we get them done professionally?
+Speaker 1:
+No, and that's what's great about it. John from the sales department is a semi-pro in photography. He took all the pictures for us.
+Speaker 2:
+Wow, he is good. He should have pursued a career in photography. It's really good.</t>
+  </si>
+  <si>
+    <t>RelationshipInference</t>
+  </si>
+  <si>
+    <t>DetailComprehension</t>
+  </si>
+  <si>
+    <t>EmotionIntention</t>
+  </si>
+  <si>
+    <t>OutcomePredict</t>
+  </si>
+  <si>
+    <t>MainTopicIdentification</t>
+  </si>
+  <si>
+    <t>DetailExtraction</t>
+  </si>
+  <si>
+    <t>SpeakerIntention</t>
+  </si>
+  <si>
+    <t>ImpliedInformation</t>
+  </si>
+  <si>
+    <t>ContextRecognition</t>
+  </si>
+  <si>
+    <t>VocabularyFill</t>
+  </si>
+  <si>
+    <t>PrepositionChoice</t>
+  </si>
+  <si>
+    <t>TenseUsage</t>
+  </si>
+  <si>
+    <t>GrammarStructure</t>
+  </si>
+  <si>
+    <t>VerbFormSelection</t>
+  </si>
+  <si>
+    <t>VocabularyInsertion</t>
+  </si>
+  <si>
+    <t>LogicalCompletion</t>
+  </si>
+  <si>
+    <t>TextCoherence</t>
+  </si>
+  <si>
+    <t>SentenceRelationship</t>
+  </si>
+  <si>
+    <t>MainIdea</t>
+  </si>
+  <si>
+    <t>DetailInformation</t>
+  </si>
+  <si>
+    <t>WordInference</t>
+  </si>
+  <si>
+    <t>AuthorPerspective</t>
+  </si>
+  <si>
+    <t>ComparativeAnalysis</t>
+  </si>
+  <si>
+    <t>InformationRelationship</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,6 +1890,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAA9BF5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1787,7 +1911,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1810,11 +1934,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1838,6 +1973,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1848,14 +1990,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1893,7 +2038,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1965,7 +2110,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2138,16 +2283,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection sqref="A1:J101"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,8 +2323,17 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2208,8 +2362,14 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2236,8 +2396,14 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2264,8 +2430,14 @@
       <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2292,8 +2464,14 @@
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2318,8 +2496,14 @@
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2344,8 +2528,14 @@
       <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2370,8 +2560,14 @@
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2396,8 +2592,14 @@
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2422,8 +2624,14 @@
       <c r="J10" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2448,8 +2656,14 @@
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2474,8 +2688,14 @@
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2500,8 +2720,14 @@
       <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2526,8 +2752,14 @@
       <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="65.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2552,8 +2784,14 @@
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2582,8 +2820,17 @@
       <c r="J16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2610,8 +2857,17 @@
       <c r="J17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2638,8 +2894,17 @@
       <c r="J18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2666,8 +2931,17 @@
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>537</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2694,8 +2968,17 @@
       <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>537</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2722,8 +3005,17 @@
       <c r="J21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>537</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2750,8 +3042,17 @@
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2778,8 +3079,17 @@
       <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2806,8 +3116,17 @@
       <c r="J24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2834,8 +3153,17 @@
       <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2862,8 +3190,17 @@
       <c r="J26" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2890,8 +3227,17 @@
       <c r="J27" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2918,8 +3264,17 @@
       <c r="J28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2946,8 +3301,17 @@
       <c r="J29" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2974,8 +3338,17 @@
       <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3002,8 +3375,14 @@
       <c r="J31" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3030,8 +3409,14 @@
       <c r="J32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="65.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3058,8 +3443,14 @@
       <c r="J33" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="97.85" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3086,8 +3477,14 @@
       <c r="J34" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3114,8 +3511,14 @@
       <c r="J35" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="81.55" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3142,8 +3545,14 @@
       <c r="J36" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="130.44999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3172,8 +3581,14 @@
       <c r="J37" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3200,8 +3615,14 @@
       <c r="J38" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="81.55" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3228,8 +3649,14 @@
       <c r="J39" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3256,8 +3683,14 @@
       <c r="J40" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3284,8 +3717,14 @@
       <c r="J41" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3312,8 +3751,14 @@
       <c r="J42" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3340,8 +3785,14 @@
       <c r="J43" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3368,8 +3819,14 @@
       <c r="J44" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3396,8 +3853,14 @@
       <c r="J45" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3424,8 +3887,14 @@
       <c r="J46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3452,8 +3921,14 @@
       <c r="J47" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3480,8 +3955,14 @@
       <c r="J48" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3508,8 +3989,14 @@
       <c r="J49" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3536,8 +4023,14 @@
       <c r="J50" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3564,8 +4057,14 @@
       <c r="J51" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3592,8 +4091,14 @@
       <c r="J52" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3618,8 +4123,14 @@
       <c r="J53" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3644,8 +4155,14 @@
       <c r="J54" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3670,8 +4187,14 @@
       <c r="J55" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3696,8 +4219,14 @@
       <c r="J56" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3722,8 +4251,14 @@
       <c r="J57" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3748,8 +4283,14 @@
       <c r="J58" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3774,8 +4315,14 @@
       <c r="J59" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3800,8 +4347,14 @@
       <c r="J60" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3826,8 +4379,14 @@
       <c r="J61" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3852,8 +4411,14 @@
       <c r="J62" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3878,8 +4443,14 @@
       <c r="J63" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3904,8 +4475,14 @@
       <c r="J64" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3930,8 +4507,14 @@
       <c r="J65" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3958,8 +4541,14 @@
       <c r="J66" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>6</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3982,8 +4571,14 @@
       <c r="J67" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>6</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4006,8 +4601,14 @@
       <c r="J68" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>6</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4032,8 +4633,14 @@
       <c r="J69" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>6</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4056,8 +4663,14 @@
       <c r="J70" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>6</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4080,8 +4693,14 @@
       <c r="J71" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>6</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4106,8 +4725,14 @@
       <c r="J72" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>6</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4130,8 +4755,14 @@
       <c r="J73" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>6</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4154,8 +4785,14 @@
       <c r="J74" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>6</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -4182,8 +4819,14 @@
       <c r="J75" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>7</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4208,8 +4851,14 @@
       <c r="J76" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>7</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4234,8 +4883,14 @@
       <c r="J77" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>7</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4262,8 +4917,14 @@
       <c r="J78" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>7</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4288,8 +4949,14 @@
       <c r="J79" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>7</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -4314,8 +4981,14 @@
       <c r="J80" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>7</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="228.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4340,8 +5013,14 @@
       <c r="J81" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>7</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4366,8 +5045,14 @@
       <c r="J82" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>7</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4394,8 +5079,14 @@
       <c r="J83" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>7</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4420,8 +5111,14 @@
       <c r="J84" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>7</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -4446,8 +5143,14 @@
       <c r="J85" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>7</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4472,8 +5175,14 @@
       <c r="J86" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>7</v>
+      </c>
+      <c r="L86" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4498,8 +5207,14 @@
       <c r="J87" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>7</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4526,8 +5241,14 @@
       <c r="J88" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>7</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4552,8 +5273,14 @@
       <c r="J89" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>7</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="114.15" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -4578,8 +5305,14 @@
       <c r="J90" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>7</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4604,8 +5337,14 @@
       <c r="J91" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>7</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4632,8 +5371,14 @@
       <c r="J92" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>7</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -4658,8 +5403,14 @@
       <c r="J93" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>7</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4684,8 +5435,14 @@
       <c r="J94" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -4712,8 +5469,14 @@
       <c r="J95" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>7</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="130.44999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4738,8 +5501,14 @@
       <c r="J96" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>7</v>
+      </c>
+      <c r="L96" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4764,8 +5533,14 @@
       <c r="J97" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>7</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -4792,8 +5567,14 @@
       <c r="J98" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>7</v>
+      </c>
+      <c r="L98" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="81.55" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4818,8 +5599,14 @@
       <c r="J99" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>7</v>
+      </c>
+      <c r="L99" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -4846,8 +5633,14 @@
       <c r="J100" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>7</v>
+      </c>
+      <c r="L100" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4871,6 +5664,12 @@
       </c>
       <c r="J101" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="K101">
+        <v>7</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4879,24 +5678,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
